--- a/Data/EC/NIT-9005747051.xlsx
+++ b/Data/EC/NIT-9005747051.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95A182D6-A94A-45E1-BC27-0F6A1E1DD460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BAAB9F2-8A5F-4BB1-924A-792629131F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D42CFB66-166F-45E2-97CF-DCAB9EFC07FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{07A78F50-77C4-45A2-8FF9-D097D4C9D4A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="75">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,135 @@
     <t>CC</t>
   </si>
   <si>
+    <t>74084058</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS PINZON GOMEZ</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>1047478333</t>
+  </si>
+  <si>
+    <t>JOHN LUIS ZAPATEIRO PEREZ</t>
+  </si>
+  <si>
+    <t>73186602</t>
+  </si>
+  <si>
+    <t>JUAN DANIEL YEPES CASTRO</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>1047451954</t>
+  </si>
+  <si>
+    <t>JOINER JOSE MENA OROZCO</t>
+  </si>
+  <si>
+    <t>9140205</t>
+  </si>
+  <si>
+    <t>FILADELFO ANTONIO PINEDA MARTINEZ</t>
+  </si>
+  <si>
+    <t>1043650520</t>
+  </si>
+  <si>
+    <t>ANTONIO RICARDO CATALAN</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
     <t>20338976</t>
   </si>
   <si>
@@ -83,139 +212,22 @@
     <t>2201</t>
   </si>
   <si>
-    <t>73186602</t>
-  </si>
-  <si>
-    <t>JUAN DANIEL YEPES CASTRO</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
     <t>73205587</t>
   </si>
   <si>
     <t>WILFRIDO RAFAEL CONDES AVILA</t>
   </si>
   <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>74084058</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS PINZON GOMEZ</t>
+    <t>20353953</t>
+  </si>
+  <si>
+    <t>YENDRIS ALBERTO PACHECO CORTEZ</t>
   </si>
   <si>
     <t>20354024</t>
   </si>
   <si>
     <t>FRANCISCO JAVIER MERCADO MELENDEZ</t>
-  </si>
-  <si>
-    <t>20353953</t>
-  </si>
-  <si>
-    <t>YENDRIS ALBERTO PACHECO CORTEZ</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>1047451954</t>
-  </si>
-  <si>
-    <t>JOINER JOSE MENA OROZCO</t>
-  </si>
-  <si>
-    <t>1047478333</t>
-  </si>
-  <si>
-    <t>JOHN LUIS ZAPATEIRO PEREZ</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -629,7 +641,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D82F086-C920-5F76-840F-D62A2F093696}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DD2F06-3429-1DA8-F849-821DFEF922BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -980,8 +992,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DE79B3-D828-4E02-9103-D9DCF3CF275B}">
-  <dimension ref="B2:J73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB7BFF1-6CA9-4FF9-BD68-2B3ED754A97D}">
+  <dimension ref="B2:J91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1005,7 +1017,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1050,7 +1062,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1082,12 +1094,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2959040</v>
+        <v>4162640</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1098,14 +1110,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F13" s="5">
         <v>33</v>
@@ -1135,13 +1147,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1158,10 +1170,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>44800</v>
+        <v>38000</v>
       </c>
       <c r="G16" s="18">
-        <v>1400000</v>
+        <v>1500000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1172,16 +1184,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="G17" s="18">
         <v>1500000</v>
@@ -1195,19 +1207,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1218,16 +1230,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>46000</v>
+        <v>60000</v>
       </c>
       <c r="G19" s="18">
         <v>1500000</v>
@@ -1241,16 +1253,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>46000</v>
+        <v>60000</v>
       </c>
       <c r="G20" s="18">
         <v>1500000</v>
@@ -1264,19 +1276,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>66240</v>
+        <v>60000</v>
       </c>
       <c r="G21" s="18">
-        <v>2160000</v>
+        <v>1500000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1287,16 +1299,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>42000</v>
+        <v>60000</v>
       </c>
       <c r="G22" s="18">
         <v>1500000</v>
@@ -1310,13 +1322,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>60000</v>
@@ -1333,13 +1345,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F24" s="18">
         <v>60000</v>
@@ -1356,13 +1368,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>60000</v>
@@ -1379,13 +1391,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F26" s="18">
         <v>60000</v>
@@ -1402,13 +1414,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>60000</v>
@@ -1425,13 +1437,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>60000</v>
@@ -1448,16 +1460,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>60000</v>
+        <v>46000</v>
       </c>
       <c r="G29" s="18">
         <v>1500000</v>
@@ -1471,19 +1483,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F30" s="18">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="G30" s="18">
-        <v>1500000</v>
+        <v>3818010</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1494,19 +1506,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
         <v>46000</v>
       </c>
       <c r="G31" s="18">
-        <v>1500000</v>
+        <v>3818010</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1517,19 +1529,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G32" s="18">
-        <v>1500000</v>
+        <v>908526</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1540,16 +1552,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F33" s="18">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="G33" s="18">
         <v>1500000</v>
@@ -1563,19 +1575,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="E34" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F34" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G34" s="18">
-        <v>1500000</v>
+        <v>877803</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1586,19 +1598,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F35" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G35" s="18">
-        <v>1500000</v>
+        <v>877803</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1609,19 +1621,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F36" s="18">
-        <v>60000</v>
+        <v>47600</v>
       </c>
       <c r="G36" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1632,19 +1644,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F37" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G37" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1655,19 +1667,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F38" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G38" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1678,19 +1690,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F39" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G39" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1701,19 +1713,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F40" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G40" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1724,19 +1736,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F41" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G41" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1747,19 +1759,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F42" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G42" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1770,19 +1782,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F43" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G43" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1793,19 +1805,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F44" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G44" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1816,19 +1828,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F45" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G45" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1839,19 +1851,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F46" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G46" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1862,19 +1874,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F47" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G47" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1885,19 +1897,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F48" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G48" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1908,19 +1920,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F49" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G49" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1931,19 +1943,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F50" s="18">
-        <v>38000</v>
+        <v>68000</v>
       </c>
       <c r="G50" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1954,19 +1966,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F51" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G51" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1977,19 +1989,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F52" s="18">
-        <v>60000</v>
+        <v>44800</v>
       </c>
       <c r="G52" s="18">
-        <v>1500000</v>
+        <v>1400000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2000,16 +2012,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F53" s="18">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="G53" s="18">
         <v>1500000</v>
@@ -2023,16 +2035,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F54" s="18">
-        <v>60000</v>
+        <v>42000</v>
       </c>
       <c r="G54" s="18">
         <v>1500000</v>
@@ -2046,13 +2058,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F55" s="18">
         <v>60000</v>
@@ -2069,13 +2081,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F56" s="18">
         <v>60000</v>
@@ -2092,13 +2104,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F57" s="18">
         <v>60000</v>
@@ -2115,13 +2127,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F58" s="18">
         <v>60000</v>
@@ -2138,13 +2150,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F59" s="18">
         <v>60000</v>
@@ -2161,13 +2173,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F60" s="18">
         <v>60000</v>
@@ -2184,13 +2196,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F61" s="18">
         <v>60000</v>
@@ -2207,13 +2219,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F62" s="18">
         <v>60000</v>
@@ -2230,13 +2242,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F63" s="18">
         <v>60000</v>
@@ -2253,13 +2265,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F64" s="18">
         <v>60000</v>
@@ -2276,13 +2288,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F65" s="18">
         <v>60000</v>
@@ -2299,13 +2311,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F66" s="18">
         <v>60000</v>
@@ -2318,56 +2330,470 @@
       <c r="J66" s="20"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="22" t="s">
+      <c r="B67" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G67" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="20"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G68" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="20"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F69" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G69" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="20"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G70" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G71" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G72" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G73" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G74" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G75" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G76" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="F77" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G77" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F67" s="24">
+      <c r="F78" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G78" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="20"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B79" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G79" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="20"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G80" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="20"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G81" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="20"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G82" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="20"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="18">
+        <v>46000</v>
+      </c>
+      <c r="G83" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="20"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="18">
         <v>42000</v>
       </c>
-      <c r="G67" s="24">
-        <v>1500000</v>
-      </c>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="32"/>
-      <c r="H72" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="32"/>
-      <c r="H73" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="G84" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" s="24">
+        <v>66240</v>
+      </c>
+      <c r="G85" s="24">
+        <v>2160000</v>
+      </c>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B90" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" s="32"/>
+      <c r="H90" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" s="32"/>
+      <c r="H91" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H90:J90"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9005747051.xlsx
+++ b/Data/EC/NIT-9005747051.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BAAB9F2-8A5F-4BB1-924A-792629131F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD9C025D-1056-4626-828D-43051E05393C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{07A78F50-77C4-45A2-8FF9-D097D4C9D4A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9AC95643-3FBC-4194-9558-494AD58F8562}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="71">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,169 +65,157 @@
     <t>CC</t>
   </si>
   <si>
+    <t>20338976</t>
+  </si>
+  <si>
+    <t>IVAN JAVIER GUERRERO CARRASCAL</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>20343014</t>
+  </si>
+  <si>
+    <t>FANNY ELENA MEDINA JIMENEZ</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>73186602</t>
+  </si>
+  <si>
+    <t>JUAN DANIEL YEPES CASTRO</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
     <t>74084058</t>
   </si>
   <si>
     <t>JUAN CARLOS PINZON GOMEZ</t>
   </si>
   <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>73205587</t>
+  </si>
+  <si>
+    <t>WILFRIDO RAFAEL CONDES AVILA</t>
+  </si>
+  <si>
+    <t>20353953</t>
+  </si>
+  <si>
+    <t>YENDRIS ALBERTO PACHECO CORTEZ</t>
+  </si>
+  <si>
+    <t>20354024</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER MERCADO MELENDEZ</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>1047478333</t>
+  </si>
+  <si>
+    <t>JOHN LUIS ZAPATEIRO PEREZ</t>
+  </si>
+  <si>
+    <t>1047451954</t>
+  </si>
+  <si>
+    <t>JOINER JOSE MENA OROZCO</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
     <t>2304</t>
   </si>
   <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>1047478333</t>
-  </si>
-  <si>
-    <t>JOHN LUIS ZAPATEIRO PEREZ</t>
-  </si>
-  <si>
-    <t>73186602</t>
-  </si>
-  <si>
-    <t>JUAN DANIEL YEPES CASTRO</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>1047451954</t>
-  </si>
-  <si>
-    <t>JOINER JOSE MENA OROZCO</t>
-  </si>
-  <si>
-    <t>9140205</t>
-  </si>
-  <si>
-    <t>FILADELFO ANTONIO PINEDA MARTINEZ</t>
-  </si>
-  <si>
-    <t>1043650520</t>
-  </si>
-  <si>
-    <t>ANTONIO RICARDO CATALAN</t>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
   </si>
   <si>
     <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>20338976</t>
-  </si>
-  <si>
-    <t>IVAN JAVIER GUERRERO CARRASCAL</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>20343014</t>
-  </si>
-  <si>
-    <t>FANNY ELENA MEDINA JIMENEZ</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>73205587</t>
-  </si>
-  <si>
-    <t>WILFRIDO RAFAEL CONDES AVILA</t>
-  </si>
-  <si>
-    <t>20353953</t>
-  </si>
-  <si>
-    <t>YENDRIS ALBERTO PACHECO CORTEZ</t>
-  </si>
-  <si>
-    <t>20354024</t>
-  </si>
-  <si>
-    <t>FRANCISCO JAVIER MERCADO MELENDEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -326,7 +314,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -339,9 +329,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -541,23 +529,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,10 +573,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,7 +629,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DD2F06-3429-1DA8-F849-821DFEF922BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79358913-2304-01C6-81F6-7AC9D26F179D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -992,8 +980,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB7BFF1-6CA9-4FF9-BD68-2B3ED754A97D}">
-  <dimension ref="B2:J91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33816BB9-B445-4E47-B120-DDF6160E2D09}">
+  <dimension ref="B2:J73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1017,7 +1005,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1062,7 +1050,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1094,12 +1082,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4162640</v>
+        <v>2959040</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1110,14 +1098,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" s="5">
         <v>33</v>
@@ -1147,13 +1135,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1170,10 +1158,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>38000</v>
+        <v>44800</v>
       </c>
       <c r="G16" s="18">
-        <v>1500000</v>
+        <v>1400000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1184,16 +1172,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="G17" s="18">
         <v>1500000</v>
@@ -1207,19 +1195,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G18" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1230,16 +1218,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F19" s="18">
-        <v>60000</v>
+        <v>46000</v>
       </c>
       <c r="G19" s="18">
         <v>1500000</v>
@@ -1253,16 +1241,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F20" s="18">
-        <v>60000</v>
+        <v>46000</v>
       </c>
       <c r="G20" s="18">
         <v>1500000</v>
@@ -1276,16 +1264,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>60000</v>
+        <v>42000</v>
       </c>
       <c r="G21" s="18">
         <v>1500000</v>
@@ -1299,19 +1287,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>60000</v>
+        <v>66240</v>
       </c>
       <c r="G22" s="18">
-        <v>1500000</v>
+        <v>2160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1322,13 +1310,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F23" s="18">
         <v>60000</v>
@@ -1345,13 +1333,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F24" s="18">
         <v>60000</v>
@@ -1368,13 +1356,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F25" s="18">
         <v>60000</v>
@@ -1391,13 +1379,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F26" s="18">
         <v>60000</v>
@@ -1414,13 +1402,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F27" s="18">
         <v>60000</v>
@@ -1437,13 +1425,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F28" s="18">
         <v>60000</v>
@@ -1460,16 +1448,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F29" s="18">
-        <v>46000</v>
+        <v>60000</v>
       </c>
       <c r="G29" s="18">
         <v>1500000</v>
@@ -1483,19 +1471,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F30" s="18">
-        <v>60000</v>
+        <v>46000</v>
       </c>
       <c r="G30" s="18">
-        <v>3818010</v>
+        <v>1500000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1506,19 +1494,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F31" s="18">
-        <v>46000</v>
+        <v>10000</v>
       </c>
       <c r="G31" s="18">
-        <v>3818010</v>
+        <v>1500000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1529,19 +1517,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G32" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1552,16 +1540,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F33" s="18">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="G33" s="18">
         <v>1500000</v>
@@ -1575,19 +1563,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="E34" s="16" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F34" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G34" s="18">
-        <v>877803</v>
+        <v>1500000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1598,19 +1586,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F35" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G35" s="18">
-        <v>877803</v>
+        <v>1500000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1621,19 +1609,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F36" s="18">
-        <v>47600</v>
+        <v>60000</v>
       </c>
       <c r="G36" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1644,19 +1632,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F37" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G37" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1667,19 +1655,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G38" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1690,19 +1678,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F39" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G39" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1713,19 +1701,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F40" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G40" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1736,19 +1724,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G41" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1759,19 +1747,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G42" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1782,19 +1770,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F43" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G43" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1805,19 +1793,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F44" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G44" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1828,19 +1816,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G45" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1851,19 +1839,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G46" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1874,19 +1862,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F47" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G47" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1897,19 +1885,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F48" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G48" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1920,19 +1908,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F49" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G49" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1943,19 +1931,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F50" s="18">
-        <v>68000</v>
+        <v>38000</v>
       </c>
       <c r="G50" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1966,19 +1954,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F51" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G51" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1989,19 +1977,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F52" s="18">
-        <v>44800</v>
+        <v>60000</v>
       </c>
       <c r="G52" s="18">
-        <v>1400000</v>
+        <v>1500000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2012,16 +2000,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F53" s="18">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="G53" s="18">
         <v>1500000</v>
@@ -2035,16 +2023,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F54" s="18">
-        <v>42000</v>
+        <v>60000</v>
       </c>
       <c r="G54" s="18">
         <v>1500000</v>
@@ -2058,13 +2046,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F55" s="18">
         <v>60000</v>
@@ -2081,13 +2069,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F56" s="18">
         <v>60000</v>
@@ -2104,13 +2092,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F57" s="18">
         <v>60000</v>
@@ -2127,13 +2115,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F58" s="18">
         <v>60000</v>
@@ -2150,13 +2138,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F59" s="18">
         <v>60000</v>
@@ -2173,13 +2161,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F60" s="18">
         <v>60000</v>
@@ -2196,13 +2184,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F61" s="18">
         <v>60000</v>
@@ -2219,13 +2207,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F62" s="18">
         <v>60000</v>
@@ -2242,13 +2230,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F63" s="18">
         <v>60000</v>
@@ -2265,13 +2253,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F64" s="18">
         <v>60000</v>
@@ -2288,13 +2276,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F65" s="18">
         <v>60000</v>
@@ -2311,13 +2299,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="F66" s="18">
         <v>60000</v>
@@ -2330,470 +2318,56 @@
       <c r="J66" s="20"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D67" s="17" t="s">
+      <c r="B67" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E67" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F67" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G67" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F68" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G68" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F69" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G69" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G70" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G71" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F67" s="24">
+        <v>42000</v>
+      </c>
+      <c r="G67" s="24">
+        <v>1500000</v>
+      </c>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G72" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="B72" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="32"/>
+      <c r="H72" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G73" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G74" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G75" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G76" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G77" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G78" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F79" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G79" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F80" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G80" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F81" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G81" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B82" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F82" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G82" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F83" s="18">
-        <v>46000</v>
-      </c>
-      <c r="G83" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" s="18">
-        <v>42000</v>
-      </c>
-      <c r="G84" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E85" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F85" s="24">
-        <v>66240</v>
-      </c>
-      <c r="G85" s="24">
-        <v>2160000</v>
-      </c>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C90" s="32"/>
-      <c r="H90" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B91" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C91" s="32"/>
-      <c r="H91" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
+      <c r="B73" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="32"/>
+      <c r="H73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H72:J72"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
